--- a/NIFTY/Ticker Tap/business_analysis.xlsx
+++ b/NIFTY/Ticker Tap/business_analysis.xlsx
@@ -9,11 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$X$61</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="197">
   <si>
     <t>Cyclical sectors</t>
   </si>
@@ -147,6 +152,474 @@
   </si>
   <si>
     <t>price/Book ratio</t>
+  </si>
+  <si>
+    <t>Automobile sectors</t>
+  </si>
+  <si>
+    <t>2 - whw=eelers</t>
+  </si>
+  <si>
+    <t>passenger vehicales</t>
+  </si>
+  <si>
+    <t>commericail vehicles</t>
+  </si>
+  <si>
+    <t>Autmobile matrix</t>
+  </si>
+  <si>
+    <t>operating margin</t>
+  </si>
+  <si>
+    <t>Dept/profit ratio</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Sub-Sector</t>
+  </si>
+  <si>
+    <t>Market Cap</t>
+  </si>
+  <si>
+    <t>Close Price</t>
+  </si>
+  <si>
+    <t>PE Ratio</t>
+  </si>
+  <si>
+    <t>5Y Historical Revenue Growth</t>
+  </si>
+  <si>
+    <t>5Y Historical EPS Growth</t>
+  </si>
+  <si>
+    <t>5Y Hist Op. Cash Flow Growth</t>
+  </si>
+  <si>
+    <t>5Y Historical EBITDA Growth</t>
+  </si>
+  <si>
+    <t>5Y Avg Net Profit Margin</t>
+  </si>
+  <si>
+    <t>5Y Avg Cash Flow Margin</t>
+  </si>
+  <si>
+    <t>5Y Avg Return on Equity</t>
+  </si>
+  <si>
+    <t>5Y Avg Return on Assets</t>
+  </si>
+  <si>
+    <t>Debt to Equity</t>
+  </si>
+  <si>
+    <t>Net Income / Liabilities</t>
+  </si>
+  <si>
+    <t>Current Ratio</t>
+  </si>
+  <si>
+    <t>Days of Inventory Outstanding</t>
+  </si>
+  <si>
+    <t>Sector PE</t>
+  </si>
+  <si>
+    <t>Percentage Upside</t>
+  </si>
+  <si>
+    <t>Percentage Buy Recoâ€™s</t>
+  </si>
+  <si>
+    <t>Price to Intrinsic Value Rank</t>
+  </si>
+  <si>
+    <t>Fundamental Score</t>
+  </si>
+  <si>
+    <t>Earnings Quality Rank</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki India Ltd</t>
+  </si>
+  <si>
+    <t>MARUTI</t>
+  </si>
+  <si>
+    <t>Four Wheelers</t>
+  </si>
+  <si>
+    <t>Tata Motors Ltd</t>
+  </si>
+  <si>
+    <t>TATAMOTORS</t>
+  </si>
+  <si>
+    <t>Mahindra and Mahindra Ltd</t>
+  </si>
+  <si>
+    <t>M&amp;M</t>
+  </si>
+  <si>
+    <t>TATAMTRDVR</t>
+  </si>
+  <si>
+    <t>Bajaj Auto Ltd</t>
+  </si>
+  <si>
+    <t>BAJAJ-AUTO</t>
+  </si>
+  <si>
+    <t>Two Wheelers</t>
+  </si>
+  <si>
+    <t>Samvardhana Motherson International Ltd</t>
+  </si>
+  <si>
+    <t>MOTHERSON</t>
+  </si>
+  <si>
+    <t>Auto Parts</t>
+  </si>
+  <si>
+    <t>TVS Motor Company Ltd</t>
+  </si>
+  <si>
+    <t>TVSMOTOR</t>
+  </si>
+  <si>
+    <t>Hero MotoCorp Ltd</t>
+  </si>
+  <si>
+    <t>HEROMOTOCO</t>
+  </si>
+  <si>
+    <t>Tube Investments of India Ltd</t>
+  </si>
+  <si>
+    <t>TIINDIA</t>
+  </si>
+  <si>
+    <t>Cycles</t>
+  </si>
+  <si>
+    <t>Bosch Ltd</t>
+  </si>
+  <si>
+    <t>BOSCHLTD</t>
+  </si>
+  <si>
+    <t>Balkrishna Industries Ltd</t>
+  </si>
+  <si>
+    <t>BALKRISIND</t>
+  </si>
+  <si>
+    <t>Tires &amp; Rubber</t>
+  </si>
+  <si>
+    <t>Schaeffler India Ltd</t>
+  </si>
+  <si>
+    <t>SCHAEFFLER</t>
+  </si>
+  <si>
+    <t>MRF Ltd</t>
+  </si>
+  <si>
+    <t>MRF</t>
+  </si>
+  <si>
+    <t>UNO Minda Ltd</t>
+  </si>
+  <si>
+    <t>UNOMINDA</t>
+  </si>
+  <si>
+    <t>Sona BLW Precision Forgings Ltd</t>
+  </si>
+  <si>
+    <t>SONACOMS</t>
+  </si>
+  <si>
+    <t>Apollo Tyres Limited</t>
+  </si>
+  <si>
+    <t>APOLLOTYRE</t>
+  </si>
+  <si>
+    <t>Sundram Fasteners Ltd</t>
+  </si>
+  <si>
+    <t>SUNDRMFAST</t>
+  </si>
+  <si>
+    <t>ZF Commercial Vehicle Control Systems India Ltd</t>
+  </si>
+  <si>
+    <t>ZFCVINDIA</t>
+  </si>
+  <si>
+    <t>Endurance Technologies Ltd (CN)</t>
+  </si>
+  <si>
+    <t>ENDURANCE</t>
+  </si>
+  <si>
+    <t>Sundaram Clayton Ltd</t>
+  </si>
+  <si>
+    <t>SUNCLAYLTD</t>
+  </si>
+  <si>
+    <t>CIE Automotive India Ltd</t>
+  </si>
+  <si>
+    <t>CIEINDIA</t>
+  </si>
+  <si>
+    <t>JBM Auto Ltd</t>
+  </si>
+  <si>
+    <t>JBMA</t>
+  </si>
+  <si>
+    <t>Asahi India Glass Ltd</t>
+  </si>
+  <si>
+    <t>ASAHIINDIA</t>
+  </si>
+  <si>
+    <t>CEAT Ltd</t>
+  </si>
+  <si>
+    <t>CEATLTD</t>
+  </si>
+  <si>
+    <t>Minda Corporation Ltd</t>
+  </si>
+  <si>
+    <t>MINDACORP</t>
+  </si>
+  <si>
+    <t>JK Tyre &amp; Industries Ltd</t>
+  </si>
+  <si>
+    <t>JKTYRE</t>
+  </si>
+  <si>
+    <t>Maharashtra Scooters Ltd</t>
+  </si>
+  <si>
+    <t>MAHSCOOTER</t>
+  </si>
+  <si>
+    <t>Shriram Pistons &amp; Rings Ltd</t>
+  </si>
+  <si>
+    <t>SHRIPISTON</t>
+  </si>
+  <si>
+    <t>Suprajit Engineering Ltd</t>
+  </si>
+  <si>
+    <t>SUPRAJIT</t>
+  </si>
+  <si>
+    <t>Varroc Engineering Ltd</t>
+  </si>
+  <si>
+    <t>VARROC</t>
+  </si>
+  <si>
+    <t>Sansera Engineering Ltd</t>
+  </si>
+  <si>
+    <t>SANSERA</t>
+  </si>
+  <si>
+    <t>Jamna Auto Industries Ltd</t>
+  </si>
+  <si>
+    <t>JAMNAAUTO</t>
+  </si>
+  <si>
+    <t>JTEKT India Ltd</t>
+  </si>
+  <si>
+    <t>JTEKTINDIA</t>
+  </si>
+  <si>
+    <t>Steel Strips Wheels Ltd</t>
+  </si>
+  <si>
+    <t>SSWL</t>
+  </si>
+  <si>
+    <t>Shanthi Gears Ltd</t>
+  </si>
+  <si>
+    <t>SHANTIGEAR</t>
+  </si>
+  <si>
+    <t>IFB Industries Ltd</t>
+  </si>
+  <si>
+    <t>IFBIND</t>
+  </si>
+  <si>
+    <t>Force Motors Ltd</t>
+  </si>
+  <si>
+    <t>FORCEMOT</t>
+  </si>
+  <si>
+    <t>Pricol Ltd</t>
+  </si>
+  <si>
+    <t>PRICOLLTD</t>
+  </si>
+  <si>
+    <t>Automotive Axles Ltd</t>
+  </si>
+  <si>
+    <t>AUTOAXLES</t>
+  </si>
+  <si>
+    <t>Goodyear India Ltd</t>
+  </si>
+  <si>
+    <t>GOODYEAR</t>
+  </si>
+  <si>
+    <t>Gabriel India Ltd</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>Dynamatic Technologies Ltd</t>
+  </si>
+  <si>
+    <t>DYNAMATECH</t>
+  </si>
+  <si>
+    <t>Subros Ltd</t>
+  </si>
+  <si>
+    <t>SUBROS</t>
+  </si>
+  <si>
+    <t>Lumax AutoTechnologies Ltd</t>
+  </si>
+  <si>
+    <t>LUMAXTECH</t>
+  </si>
+  <si>
+    <t>Sharda Motor Industries Ltd</t>
+  </si>
+  <si>
+    <t>SHARDAMOTR</t>
+  </si>
+  <si>
+    <t>Banco Products (India) Ltd</t>
+  </si>
+  <si>
+    <t>BANCOINDIA</t>
+  </si>
+  <si>
+    <t>Fiem Industries Ltd</t>
+  </si>
+  <si>
+    <t>FIEMIND</t>
+  </si>
+  <si>
+    <t>Kesoram Industries Ltd</t>
+  </si>
+  <si>
+    <t>KESORAMIND</t>
+  </si>
+  <si>
+    <t>Precision Camshafts Ltd</t>
+  </si>
+  <si>
+    <t>PRECAM</t>
+  </si>
+  <si>
+    <t>TVS Srichakra Ltd</t>
+  </si>
+  <si>
+    <t>TVSSRICHAK</t>
+  </si>
+  <si>
+    <t>Sandhar Technologies Ltd</t>
+  </si>
+  <si>
+    <t>SANDHAR</t>
+  </si>
+  <si>
+    <t>GNA Axles Ltd</t>
+  </si>
+  <si>
+    <t>GNA</t>
+  </si>
+  <si>
+    <t>Federal-Mogul Goetze (India) Ltd</t>
+  </si>
+  <si>
+    <t>FMGOETZE</t>
+  </si>
+  <si>
+    <t>SJS Enterprises Ltd</t>
+  </si>
+  <si>
+    <t>SJS</t>
+  </si>
+  <si>
+    <t>Wardwizard Innovations &amp; Mobility Ltd</t>
+  </si>
+  <si>
+    <t>WARDINMOBI</t>
+  </si>
+  <si>
+    <t>Atul Auto Ltd</t>
+  </si>
+  <si>
+    <t>ATULAUTO</t>
+  </si>
+  <si>
+    <t>Three Wheelers</t>
+  </si>
+  <si>
+    <t>Hindustan Motors Ltd</t>
+  </si>
+  <si>
+    <t>HINDMOTORS</t>
+  </si>
+  <si>
+    <t>Scooters India Ltd</t>
+  </si>
+  <si>
+    <t>SCOOTER</t>
+  </si>
+  <si>
+    <t>Hira Automobiles Ltd</t>
+  </si>
+  <si>
+    <t>HIRAUTO</t>
+  </si>
+  <si>
+    <t>Justride Enterprises Ltd</t>
+  </si>
+  <si>
+    <t>JRELTD</t>
   </si>
 </sst>
 </file>
@@ -464,19 +937,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,8 +969,14 @@
       <c r="N1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -521,8 +1001,14 @@
       <c r="N2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -547,8 +1033,14 @@
       <c r="N3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -573,8 +1065,14 @@
       <c r="N4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -596,8 +1094,11 @@
       <c r="N5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>20</v>
       </c>
@@ -609,6 +1110,4228 @@
       </c>
       <c r="N6" t="s">
         <v>40</v>
+      </c>
+      <c r="R6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2">
+        <v>293523.64230050001</v>
+      </c>
+      <c r="E2">
+        <v>9653.7999999999993</v>
+      </c>
+      <c r="F2">
+        <v>35.747612020521302</v>
+      </c>
+      <c r="G2">
+        <v>7.8881616060855198</v>
+      </c>
+      <c r="H2">
+        <v>0.826676015897298</v>
+      </c>
+      <c r="I2">
+        <v>-29.112176136342001</v>
+      </c>
+      <c r="J2">
+        <v>-1.3484747195893301</v>
+      </c>
+      <c r="K2">
+        <v>6.5822559140134098</v>
+      </c>
+      <c r="L2">
+        <v>8.0636501616611103</v>
+      </c>
+      <c r="M2">
+        <v>12.881189073316101</v>
+      </c>
+      <c r="N2">
+        <v>9.4146302044722692</v>
+      </c>
+      <c r="O2">
+        <v>0.76897358742895305</v>
+      </c>
+      <c r="P2">
+        <v>42.495600869475098</v>
+      </c>
+      <c r="Q2">
+        <v>0.986483390607101</v>
+      </c>
+      <c r="S2">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T2">
+        <v>9.2649291172459893</v>
+      </c>
+      <c r="U2">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="V2">
+        <v>60</v>
+      </c>
+      <c r="W2">
+        <v>6.7</v>
+      </c>
+      <c r="X2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <v>234924.67384035001</v>
+      </c>
+      <c r="E3">
+        <v>622.65</v>
+      </c>
+      <c r="F3">
+        <v>97.305905189664102</v>
+      </c>
+      <c r="G3">
+        <v>3.3401169932920598</v>
+      </c>
+      <c r="H3">
+        <v>-22.776018953613399</v>
+      </c>
+      <c r="I3">
+        <v>8.2048015901887901</v>
+      </c>
+      <c r="J3">
+        <v>0.39956062063060099</v>
+      </c>
+      <c r="K3">
+        <v>-4.5406604616099804</v>
+      </c>
+      <c r="L3">
+        <v>8.5670408345867592</v>
+      </c>
+      <c r="M3">
+        <v>-19.072636524931799</v>
+      </c>
+      <c r="N3">
+        <v>-3.9433221337337701</v>
+      </c>
+      <c r="O3">
+        <v>254.970892314396</v>
+      </c>
+      <c r="P3">
+        <v>0.85590381449011999</v>
+      </c>
+      <c r="Q3">
+        <v>0.97743068915654996</v>
+      </c>
+      <c r="R3">
+        <v>59.329861400308701</v>
+      </c>
+      <c r="S3">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T3">
+        <v>10.619125301017601</v>
+      </c>
+      <c r="U3">
+        <v>78.787878787878697</v>
+      </c>
+      <c r="V3">
+        <v>75</v>
+      </c>
+      <c r="W3">
+        <v>3.83</v>
+      </c>
+      <c r="X3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4">
+        <v>178766.5301799</v>
+      </c>
+      <c r="E4">
+        <v>1485.3</v>
+      </c>
+      <c r="F4">
+        <v>17.387203246598201</v>
+      </c>
+      <c r="G4">
+        <v>5.6505481933120896</v>
+      </c>
+      <c r="H4">
+        <v>5.1553828069577499</v>
+      </c>
+      <c r="J4">
+        <v>6.6264891981791196</v>
+      </c>
+      <c r="K4">
+        <v>4.5154261164407998</v>
+      </c>
+      <c r="L4">
+        <v>4.3279180185641399</v>
+      </c>
+      <c r="M4">
+        <v>8.8345132602939902</v>
+      </c>
+      <c r="N4">
+        <v>2.8193112726362601</v>
+      </c>
+      <c r="O4">
+        <v>137.513339994821</v>
+      </c>
+      <c r="P4">
+        <v>7.4937489531783301</v>
+      </c>
+      <c r="Q4">
+        <v>1.2939388413702999</v>
+      </c>
+      <c r="R4">
+        <v>67.563377069850702</v>
+      </c>
+      <c r="S4">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T4">
+        <v>7.7108514413901696</v>
+      </c>
+      <c r="U4">
+        <v>87.179487179487097</v>
+      </c>
+      <c r="V4">
+        <v>58</v>
+      </c>
+      <c r="W4">
+        <v>7.15</v>
+      </c>
+      <c r="X4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5">
+        <v>151860.11489632499</v>
+      </c>
+      <c r="E5">
+        <v>401.45</v>
+      </c>
+      <c r="F5">
+        <v>-11.289548135644299</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T5">
+        <v>20.568704952336599</v>
+      </c>
+      <c r="U5">
+        <v>100</v>
+      </c>
+      <c r="V5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6">
+        <v>139326.78829241</v>
+      </c>
+      <c r="E6">
+        <v>4832.1000000000004</v>
+      </c>
+      <c r="F6">
+        <v>22.990422492357499</v>
+      </c>
+      <c r="G6">
+        <v>7.4389484968040804</v>
+      </c>
+      <c r="H6">
+        <v>7.7516714168074996</v>
+      </c>
+      <c r="I6">
+        <v>4.0471269151541396</v>
+      </c>
+      <c r="J6">
+        <v>5.4986238463869697</v>
+      </c>
+      <c r="K6">
+        <v>16.253978317227901</v>
+      </c>
+      <c r="L6">
+        <v>11.195857713859301</v>
+      </c>
+      <c r="M6">
+        <v>21.5384294465021</v>
+      </c>
+      <c r="N6">
+        <v>17.690749058245501</v>
+      </c>
+      <c r="O6">
+        <v>0.42310436608421498</v>
+      </c>
+      <c r="P6">
+        <v>104.940518450535</v>
+      </c>
+      <c r="Q6">
+        <v>1.8309383502126799</v>
+      </c>
+      <c r="R6">
+        <v>19.355924154784802</v>
+      </c>
+      <c r="S6">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T6">
+        <v>1.6764995582814599</v>
+      </c>
+      <c r="U6">
+        <v>46.511627906976699</v>
+      </c>
+      <c r="V6">
+        <v>73</v>
+      </c>
+      <c r="W6">
+        <v>7.85</v>
+      </c>
+      <c r="X6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7">
+        <v>67018.807309740005</v>
+      </c>
+      <c r="E7">
+        <v>96.8</v>
+      </c>
+      <c r="F7">
+        <v>44.810949063405999</v>
+      </c>
+      <c r="G7">
+        <v>6.8805656331366496</v>
+      </c>
+      <c r="H7">
+        <v>-4.6166732493789304</v>
+      </c>
+      <c r="I7">
+        <v>-8.3077900165322305</v>
+      </c>
+      <c r="J7">
+        <v>3.7723661171691298</v>
+      </c>
+      <c r="K7">
+        <v>1.8949748539719899</v>
+      </c>
+      <c r="L7">
+        <v>7.07999117837449</v>
+      </c>
+      <c r="M7">
+        <v>8.9204982011242908</v>
+      </c>
+      <c r="N7">
+        <v>3.0551586961123101</v>
+      </c>
+      <c r="O7">
+        <v>63.178863024601299</v>
+      </c>
+      <c r="P7">
+        <v>4.48304906927254</v>
+      </c>
+      <c r="Q7">
+        <v>1.01484835295015</v>
+      </c>
+      <c r="S7">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T7">
+        <v>4.6511627906976596</v>
+      </c>
+      <c r="U7">
+        <v>88.8888888888888</v>
+      </c>
+      <c r="V7">
+        <v>57</v>
+      </c>
+      <c r="W7">
+        <v>2.86440677966102</v>
+      </c>
+      <c r="X7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8">
+        <v>65072.682004579998</v>
+      </c>
+      <c r="E8">
+        <v>1379.75</v>
+      </c>
+      <c r="F8">
+        <v>48.975804379251301</v>
+      </c>
+      <c r="G8">
+        <v>14.3275270187966</v>
+      </c>
+      <c r="H8">
+        <v>15.2888461116657</v>
+      </c>
+      <c r="J8">
+        <v>20.439443961090699</v>
+      </c>
+      <c r="K8">
+        <v>3.4176738162967601</v>
+      </c>
+      <c r="L8">
+        <v>-3.3665928518212098</v>
+      </c>
+      <c r="M8">
+        <v>19.207173647036502</v>
+      </c>
+      <c r="N8">
+        <v>3.6941095652419298</v>
+      </c>
+      <c r="O8">
+        <v>378.61502406998397</v>
+      </c>
+      <c r="P8">
+        <v>4.5635725470544299</v>
+      </c>
+      <c r="Q8">
+        <v>0.88493134291080999</v>
+      </c>
+      <c r="R8">
+        <v>30.799134895499801</v>
+      </c>
+      <c r="S8">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T8">
+        <v>2.2121632474264401</v>
+      </c>
+      <c r="U8">
+        <v>61.538461538461497</v>
+      </c>
+      <c r="V8">
+        <v>46</v>
+      </c>
+      <c r="W8">
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="X8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9">
+        <v>61992.879487339997</v>
+      </c>
+      <c r="E9">
+        <v>2993.45</v>
+      </c>
+      <c r="F9">
+        <v>22.061836996733</v>
+      </c>
+      <c r="G9">
+        <v>1.00836395046486</v>
+      </c>
+      <c r="H9">
+        <v>-5.4692925173446802</v>
+      </c>
+      <c r="I9">
+        <v>-8.2363049622182896</v>
+      </c>
+      <c r="J9">
+        <v>-4.5781762445494998</v>
+      </c>
+      <c r="K9">
+        <v>9.3585788046796203</v>
+      </c>
+      <c r="L9">
+        <v>9.6940357282586902</v>
+      </c>
+      <c r="M9">
+        <v>20.925702428874601</v>
+      </c>
+      <c r="N9">
+        <v>14.833880255827101</v>
+      </c>
+      <c r="O9">
+        <v>3.3821137823788501</v>
+      </c>
+      <c r="P9">
+        <v>39.375035031668503</v>
+      </c>
+      <c r="Q9">
+        <v>1.5692543350486099</v>
+      </c>
+      <c r="R9">
+        <v>24.327024541042299</v>
+      </c>
+      <c r="S9">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T9">
+        <v>-1.2926727055865299</v>
+      </c>
+      <c r="U9">
+        <v>48.717948717948701</v>
+      </c>
+      <c r="V9">
+        <v>81</v>
+      </c>
+      <c r="W9">
+        <v>5.5166666666666702</v>
+      </c>
+      <c r="X9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10">
+        <v>59134.549357224998</v>
+      </c>
+      <c r="E10">
+        <v>3047.4</v>
+      </c>
+      <c r="F10">
+        <v>61.883410449386801</v>
+      </c>
+      <c r="G10">
+        <v>24.823243671254001</v>
+      </c>
+      <c r="H10">
+        <v>44.497027422305699</v>
+      </c>
+      <c r="I10">
+        <v>27.6361484408752</v>
+      </c>
+      <c r="J10">
+        <v>38.682520134668401</v>
+      </c>
+      <c r="K10">
+        <v>5.4603220937851198</v>
+      </c>
+      <c r="L10">
+        <v>8.2357640404372994</v>
+      </c>
+      <c r="M10">
+        <v>18.532187387655899</v>
+      </c>
+      <c r="N10">
+        <v>8.0478088302079698</v>
+      </c>
+      <c r="O10">
+        <v>14.6518010291595</v>
+      </c>
+      <c r="P10">
+        <v>18.151356916408101</v>
+      </c>
+      <c r="Q10">
+        <v>1.27242181883345</v>
+      </c>
+      <c r="R10">
+        <v>48.274922199093297</v>
+      </c>
+      <c r="S10">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T10">
+        <v>0.26962987172154501</v>
+      </c>
+      <c r="U10">
+        <v>60</v>
+      </c>
+      <c r="V10">
+        <v>11</v>
+      </c>
+      <c r="W10">
+        <v>5.7550847457627103</v>
+      </c>
+      <c r="X10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11">
+        <v>56025.676139399999</v>
+      </c>
+      <c r="E11">
+        <v>18262.25</v>
+      </c>
+      <c r="F11">
+        <v>39.302473615853998</v>
+      </c>
+      <c r="G11">
+        <v>4.7689885491084301</v>
+      </c>
+      <c r="H11">
+        <v>1.47357355447914</v>
+      </c>
+      <c r="I11">
+        <v>-6.8295176238897</v>
+      </c>
+      <c r="J11">
+        <v>-1.9132470144020299</v>
+      </c>
+      <c r="K11">
+        <v>8.5586358335885109</v>
+      </c>
+      <c r="L11">
+        <v>7.1427516868752399</v>
+      </c>
+      <c r="M11">
+        <v>10.7808349214808</v>
+      </c>
+      <c r="N11">
+        <v>7.5038767674146403</v>
+      </c>
+      <c r="O11">
+        <v>0.48341223614506001</v>
+      </c>
+      <c r="P11">
+        <v>27.166869949687399</v>
+      </c>
+      <c r="Q11">
+        <v>1.7584552602766901</v>
+      </c>
+      <c r="R11">
+        <v>68.274436090225507</v>
+      </c>
+      <c r="S11">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T11">
+        <v>-4.3212070004764103</v>
+      </c>
+      <c r="U11">
+        <v>40</v>
+      </c>
+      <c r="V11">
+        <v>47</v>
+      </c>
+      <c r="W11">
+        <v>4.7991525423728802</v>
+      </c>
+      <c r="X11">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12">
+        <v>48785.526068400002</v>
+      </c>
+      <c r="E12">
+        <v>2469.5500000000002</v>
+      </c>
+      <c r="F12">
+        <v>46.137248031397696</v>
+      </c>
+      <c r="G12">
+        <v>16.135900701089</v>
+      </c>
+      <c r="H12">
+        <v>7.52193834371037</v>
+      </c>
+      <c r="I12">
+        <v>14.0634777987036</v>
+      </c>
+      <c r="J12">
+        <v>7.3266047453084999</v>
+      </c>
+      <c r="K12">
+        <v>15.976449171539199</v>
+      </c>
+      <c r="L12">
+        <v>17.099855396081601</v>
+      </c>
+      <c r="M12">
+        <v>19.1520954915201</v>
+      </c>
+      <c r="N12">
+        <v>13.3515047739025</v>
+      </c>
+      <c r="O12">
+        <v>44.284252996917999</v>
+      </c>
+      <c r="P12">
+        <v>22.071792816543599</v>
+      </c>
+      <c r="Q12">
+        <v>1.17277794862761</v>
+      </c>
+      <c r="R12">
+        <v>115.88732648792499</v>
+      </c>
+      <c r="S12">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T12">
+        <v>-11.2379140909811</v>
+      </c>
+      <c r="U12">
+        <v>40.909090909090899</v>
+      </c>
+      <c r="V12">
+        <v>48</v>
+      </c>
+      <c r="W12">
+        <v>7.1</v>
+      </c>
+      <c r="X12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13">
+        <v>48516.659167999998</v>
+      </c>
+      <c r="E13">
+        <v>3060.65</v>
+      </c>
+      <c r="F13">
+        <v>55.182105717632801</v>
+      </c>
+      <c r="G13">
+        <v>11.713941203682401</v>
+      </c>
+      <c r="H13">
+        <v>14.9276181040401</v>
+      </c>
+      <c r="I13">
+        <v>13.358320129390201</v>
+      </c>
+      <c r="J13">
+        <v>13.4601180194232</v>
+      </c>
+      <c r="K13">
+        <v>9.7495048935762902</v>
+      </c>
+      <c r="L13">
+        <v>10.5321707057753</v>
+      </c>
+      <c r="M13">
+        <v>15.972627011381499</v>
+      </c>
+      <c r="N13">
+        <v>11.9797179406154</v>
+      </c>
+      <c r="O13">
+        <v>1.3388086516250901</v>
+      </c>
+      <c r="P13">
+        <v>61.021501644896702</v>
+      </c>
+      <c r="Q13">
+        <v>2.87052874621476</v>
+      </c>
+      <c r="R13">
+        <v>96.729890757870095</v>
+      </c>
+      <c r="S13">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T13">
+        <v>1.32087628865979</v>
+      </c>
+      <c r="U13">
+        <v>42.857142857142797</v>
+      </c>
+      <c r="W13">
+        <v>5.3656862745098</v>
+      </c>
+      <c r="X13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14">
+        <v>43804.963561224999</v>
+      </c>
+      <c r="E14">
+        <v>102589.2</v>
+      </c>
+      <c r="F14">
+        <v>56.967245674263602</v>
+      </c>
+      <c r="G14">
+        <v>8.7609649195416992</v>
+      </c>
+      <c r="H14">
+        <v>-7.43639403344587</v>
+      </c>
+      <c r="I14">
+        <v>2.6900565346422698</v>
+      </c>
+      <c r="J14">
+        <v>0.23660643881138199</v>
+      </c>
+      <c r="K14">
+        <v>5.9910844525952598</v>
+      </c>
+      <c r="L14">
+        <v>11.323552695705899</v>
+      </c>
+      <c r="M14">
+        <v>8.7050800851724297</v>
+      </c>
+      <c r="N14">
+        <v>5.2476910558869596</v>
+      </c>
+      <c r="O14">
+        <v>20.489848257593501</v>
+      </c>
+      <c r="P14">
+        <v>7.9588349329665098</v>
+      </c>
+      <c r="Q14">
+        <v>1.23326022104459</v>
+      </c>
+      <c r="R14">
+        <v>89.195131694333895</v>
+      </c>
+      <c r="S14">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T14">
+        <v>-23.319528589374599</v>
+      </c>
+      <c r="U14">
+        <v>10</v>
+      </c>
+      <c r="V14">
+        <v>28</v>
+      </c>
+      <c r="W14">
+        <v>5.7050000000000001</v>
+      </c>
+      <c r="X14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15">
+        <v>33303.602039619997</v>
+      </c>
+      <c r="E15">
+        <v>576.25</v>
+      </c>
+      <c r="F15">
+        <v>50.958001743738102</v>
+      </c>
+      <c r="G15">
+        <v>20.007715998346299</v>
+      </c>
+      <c r="H15">
+        <v>13.052977529108199</v>
+      </c>
+      <c r="I15">
+        <v>2.7311517809077399</v>
+      </c>
+      <c r="J15">
+        <v>18.0981293014095</v>
+      </c>
+      <c r="K15">
+        <v>4.0991486844510296</v>
+      </c>
+      <c r="L15">
+        <v>8.3166851968282796</v>
+      </c>
+      <c r="M15">
+        <v>13.122392850059599</v>
+      </c>
+      <c r="N15">
+        <v>6.11893600080088</v>
+      </c>
+      <c r="O15">
+        <v>25.069128096155101</v>
+      </c>
+      <c r="P15">
+        <v>21.547119797436199</v>
+      </c>
+      <c r="Q15">
+        <v>1.2620152589626099</v>
+      </c>
+      <c r="S15">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T15">
+        <v>8.9219650692592296</v>
+      </c>
+      <c r="U15">
+        <v>86.6666666666666</v>
+      </c>
+      <c r="V15">
+        <v>23</v>
+      </c>
+      <c r="W15">
+        <v>5.3491525423728801</v>
+      </c>
+      <c r="X15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16">
+        <v>33195.990577309902</v>
+      </c>
+      <c r="E16">
+        <v>554.6</v>
+      </c>
+      <c r="F16">
+        <v>83.976702699999905</v>
+      </c>
+      <c r="G16">
+        <v>34.311408398607803</v>
+      </c>
+      <c r="H16">
+        <v>23.766355270351699</v>
+      </c>
+      <c r="I16">
+        <v>29.0717654334649</v>
+      </c>
+      <c r="J16">
+        <v>33.711943136344303</v>
+      </c>
+      <c r="K16">
+        <v>19.134720078540699</v>
+      </c>
+      <c r="L16">
+        <v>17.855109899463901</v>
+      </c>
+      <c r="M16">
+        <v>60.650535989054703</v>
+      </c>
+      <c r="N16">
+        <v>14.2965423950788</v>
+      </c>
+      <c r="O16">
+        <v>12.8892110330493</v>
+      </c>
+      <c r="P16">
+        <v>51.3636777068904</v>
+      </c>
+      <c r="Q16">
+        <v>2.3633058872712001</v>
+      </c>
+      <c r="R16">
+        <v>100.621304627249</v>
+      </c>
+      <c r="S16">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T16">
+        <v>11.1013138171237</v>
+      </c>
+      <c r="U16">
+        <v>56.25</v>
+      </c>
+      <c r="V16">
+        <v>15</v>
+      </c>
+      <c r="W16">
+        <v>7.99067796610169</v>
+      </c>
+      <c r="X16">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17">
+        <v>27134.687917849998</v>
+      </c>
+      <c r="E17">
+        <v>424.75</v>
+      </c>
+      <c r="F17">
+        <v>24.564281501529901</v>
+      </c>
+      <c r="G17">
+        <v>10.4919985539247</v>
+      </c>
+      <c r="H17">
+        <v>5.3676832635813003</v>
+      </c>
+      <c r="I17">
+        <v>4.4156827325496399</v>
+      </c>
+      <c r="J17">
+        <v>13.769171012638999</v>
+      </c>
+      <c r="K17">
+        <v>3.2539701496158702</v>
+      </c>
+      <c r="L17">
+        <v>10.856377004009801</v>
+      </c>
+      <c r="M17">
+        <v>5.8771492530306402</v>
+      </c>
+      <c r="N17">
+        <v>2.69814293359246</v>
+      </c>
+      <c r="O17">
+        <v>49.857428842548899</v>
+      </c>
+      <c r="P17">
+        <v>7.6660430049023098</v>
+      </c>
+      <c r="Q17">
+        <v>1.1058999624238</v>
+      </c>
+      <c r="R17">
+        <v>99.658673353190096</v>
+      </c>
+      <c r="S17">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T17">
+        <v>-1.69689877121123</v>
+      </c>
+      <c r="U17">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="V17">
+        <v>73</v>
+      </c>
+      <c r="W17">
+        <v>4.55</v>
+      </c>
+      <c r="X17">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18">
+        <v>26359.55337465</v>
+      </c>
+      <c r="E18">
+        <v>1252.55</v>
+      </c>
+      <c r="F18">
+        <v>53.284993378984701</v>
+      </c>
+      <c r="G18">
+        <v>8.0355484944764495</v>
+      </c>
+      <c r="H18">
+        <v>5.0560328389460896</v>
+      </c>
+      <c r="I18">
+        <v>0.54311212188313795</v>
+      </c>
+      <c r="J18">
+        <v>5.0043931227340801</v>
+      </c>
+      <c r="K18">
+        <v>9.2663331951178698</v>
+      </c>
+      <c r="L18">
+        <v>11.5622700299995</v>
+      </c>
+      <c r="M18">
+        <v>19.144752302102201</v>
+      </c>
+      <c r="N18">
+        <v>10.894732210936301</v>
+      </c>
+      <c r="O18">
+        <v>24.069649019304102</v>
+      </c>
+      <c r="P18">
+        <v>31.108665576657</v>
+      </c>
+      <c r="Q18">
+        <v>1.7668065246087099</v>
+      </c>
+      <c r="R18">
+        <v>113.80263379077699</v>
+      </c>
+      <c r="S18">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T18">
+        <v>-7.8082027980389803</v>
+      </c>
+      <c r="U18">
+        <v>100</v>
+      </c>
+      <c r="W18">
+        <v>6.0415254237288103</v>
+      </c>
+      <c r="X18">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <v>26137.42558992</v>
+      </c>
+      <c r="E19">
+        <v>13310.65</v>
+      </c>
+      <c r="F19">
+        <v>82.278545628860201</v>
+      </c>
+      <c r="G19">
+        <v>6.0318255864776704</v>
+      </c>
+      <c r="H19">
+        <v>3.09082133046623</v>
+      </c>
+      <c r="I19">
+        <v>-0.80572342428472099</v>
+      </c>
+      <c r="J19">
+        <v>3.8369985901128301</v>
+      </c>
+      <c r="K19">
+        <v>7.5234288759378503</v>
+      </c>
+      <c r="L19">
+        <v>7.5004569768966398</v>
+      </c>
+      <c r="M19">
+        <v>10.402052110124201</v>
+      </c>
+      <c r="N19">
+        <v>8.1526702308404797</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>51.7993705871801</v>
+      </c>
+      <c r="Q19">
+        <v>4.1788487382410002</v>
+      </c>
+      <c r="R19">
+        <v>24.788078560946399</v>
+      </c>
+      <c r="S19">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T19">
+        <v>-3.4836593481155602</v>
+      </c>
+      <c r="U19">
+        <v>60</v>
+      </c>
+      <c r="W19">
+        <v>4.93305084745763</v>
+      </c>
+      <c r="X19">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20">
+        <v>24077.963006400001</v>
+      </c>
+      <c r="E20">
+        <v>1688.1</v>
+      </c>
+      <c r="F20">
+        <v>50.206353489303098</v>
+      </c>
+      <c r="G20">
+        <v>6.7799114464383399</v>
+      </c>
+      <c r="H20">
+        <v>4.18086756481721</v>
+      </c>
+      <c r="I20">
+        <v>3.0413335417630498</v>
+      </c>
+      <c r="J20">
+        <v>2.99456907614212</v>
+      </c>
+      <c r="K20">
+        <v>6.8153386181580498</v>
+      </c>
+      <c r="L20">
+        <v>11.0794808846736</v>
+      </c>
+      <c r="M20">
+        <v>16.1705367305096</v>
+      </c>
+      <c r="N20">
+        <v>9.5011210310831693</v>
+      </c>
+      <c r="O20">
+        <v>11.667153959652101</v>
+      </c>
+      <c r="P20">
+        <v>20.067788099422501</v>
+      </c>
+      <c r="Q20">
+        <v>1.6531985311255299</v>
+      </c>
+      <c r="R20">
+        <v>47.525348721397599</v>
+      </c>
+      <c r="S20">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T20">
+        <v>-1.9132466773769501</v>
+      </c>
+      <c r="U20">
+        <v>88.235294117647001</v>
+      </c>
+      <c r="V20">
+        <v>47</v>
+      </c>
+      <c r="W20">
+        <v>5.9245762711864396</v>
+      </c>
+      <c r="X20">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21">
+        <v>19531.317541299999</v>
+      </c>
+      <c r="E21">
+        <v>5201.6499999999996</v>
+      </c>
+      <c r="F21">
+        <v>30.064369339336601</v>
+      </c>
+      <c r="G21">
+        <v>13.863288397006199</v>
+      </c>
+      <c r="H21">
+        <v>13.951264188564499</v>
+      </c>
+      <c r="J21">
+        <v>21.665993241946499</v>
+      </c>
+      <c r="K21">
+        <v>1.7846903856522101</v>
+      </c>
+      <c r="L21">
+        <v>-2.64287680900292</v>
+      </c>
+      <c r="M21">
+        <v>9.0220294330999096</v>
+      </c>
+      <c r="N21">
+        <v>1.87017852950826</v>
+      </c>
+      <c r="O21">
+        <v>426.60959612251099</v>
+      </c>
+      <c r="P21">
+        <v>1.96398528938286</v>
+      </c>
+      <c r="Q21">
+        <v>0.88497219228494295</v>
+      </c>
+      <c r="R21">
+        <v>36.1521473740641</v>
+      </c>
+      <c r="S21">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="V21">
+        <v>67</v>
+      </c>
+      <c r="X21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22">
+        <v>18886.555938944999</v>
+      </c>
+      <c r="E22">
+        <v>497.2</v>
+      </c>
+      <c r="F22">
+        <v>-138.66781159284099</v>
+      </c>
+      <c r="G22">
+        <v>6.5190246262351703</v>
+      </c>
+      <c r="I22">
+        <v>16.9003961134561</v>
+      </c>
+      <c r="J22">
+        <v>-12.5356674655318</v>
+      </c>
+      <c r="K22">
+        <v>3.3196859876507099</v>
+      </c>
+      <c r="L22">
+        <v>11.720848447973101</v>
+      </c>
+      <c r="M22">
+        <v>5.5472540216343598</v>
+      </c>
+      <c r="N22">
+        <v>2.8574123848714699</v>
+      </c>
+      <c r="O22">
+        <v>19.309600862998899</v>
+      </c>
+      <c r="Q22">
+        <v>0.95256945793666203</v>
+      </c>
+      <c r="R22">
+        <v>87.509461181055102</v>
+      </c>
+      <c r="S22">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T22">
+        <v>4.44913126443707</v>
+      </c>
+      <c r="U22">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="V22">
+        <v>62</v>
+      </c>
+      <c r="W22">
+        <v>5.0279661016949104</v>
+      </c>
+      <c r="X22">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23">
+        <v>16567.014428859999</v>
+      </c>
+      <c r="E23">
+        <v>1360.4</v>
+      </c>
+      <c r="F23">
+        <v>133.186063420371</v>
+      </c>
+      <c r="G23">
+        <v>18.5754321781342</v>
+      </c>
+      <c r="H23">
+        <v>8.8946249532415997</v>
+      </c>
+      <c r="J23">
+        <v>13.290570188092</v>
+      </c>
+      <c r="K23">
+        <v>3.6904765722973099</v>
+      </c>
+      <c r="L23">
+        <v>7.2487469581640198</v>
+      </c>
+      <c r="M23">
+        <v>13.768962528136299</v>
+      </c>
+      <c r="N23">
+        <v>4.38063754075589</v>
+      </c>
+      <c r="O23">
+        <v>154.85716835283401</v>
+      </c>
+      <c r="P23">
+        <v>5.3334076525974501</v>
+      </c>
+      <c r="Q23">
+        <v>0.98430753516876301</v>
+      </c>
+      <c r="S23">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T23">
+        <v>-51.108097498304801</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>5</v>
+      </c>
+      <c r="W23">
+        <v>4.7152542372881401</v>
+      </c>
+      <c r="X23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24">
+        <v>13536.462807735001</v>
+      </c>
+      <c r="E24">
+        <v>536.54999999999995</v>
+      </c>
+      <c r="F24">
+        <v>37.098396206245802</v>
+      </c>
+      <c r="G24">
+        <v>8.7691431672456606</v>
+      </c>
+      <c r="H24">
+        <v>15.5177183689015</v>
+      </c>
+      <c r="I24">
+        <v>6.9909210234778003</v>
+      </c>
+      <c r="J24">
+        <v>11.1800690836083</v>
+      </c>
+      <c r="K24">
+        <v>7.4814771375494002</v>
+      </c>
+      <c r="L24">
+        <v>16.307651585641398</v>
+      </c>
+      <c r="M24">
+        <v>15.706685093104699</v>
+      </c>
+      <c r="N24">
+        <v>5.5900277172937001</v>
+      </c>
+      <c r="O24">
+        <v>70.997534827724493</v>
+      </c>
+      <c r="P24">
+        <v>17.953335498282801</v>
+      </c>
+      <c r="Q24">
+        <v>1.1342635859758801</v>
+      </c>
+      <c r="S24">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T24">
+        <v>-8.5929783604202203</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>35</v>
+      </c>
+      <c r="W24">
+        <v>4.8720338983050802</v>
+      </c>
+      <c r="X24">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25">
+        <v>9911.8905436799996</v>
+      </c>
+      <c r="E25">
+        <v>2429.8000000000002</v>
+      </c>
+      <c r="F25">
+        <v>53.241072910135998</v>
+      </c>
+      <c r="G25">
+        <v>12.3469771327754</v>
+      </c>
+      <c r="H25">
+        <v>-4.7919110986019504</v>
+      </c>
+      <c r="I25">
+        <v>12.385031915237199</v>
+      </c>
+      <c r="J25">
+        <v>8.5872150506980809</v>
+      </c>
+      <c r="K25">
+        <v>3.0025074243152301</v>
+      </c>
+      <c r="L25">
+        <v>11.3872480553455</v>
+      </c>
+      <c r="M25">
+        <v>7.7659514343104901</v>
+      </c>
+      <c r="N25">
+        <v>3.2213177647983899</v>
+      </c>
+      <c r="O25">
+        <v>66.400060167253301</v>
+      </c>
+      <c r="P25">
+        <v>3.0175718409668</v>
+      </c>
+      <c r="Q25">
+        <v>0.64873492551430501</v>
+      </c>
+      <c r="R25">
+        <v>57.582985773130702</v>
+      </c>
+      <c r="S25">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T25">
+        <v>-11.422624877571</v>
+      </c>
+      <c r="U25">
+        <v>40</v>
+      </c>
+      <c r="V25">
+        <v>71</v>
+      </c>
+      <c r="W25">
+        <v>4.3650000000000002</v>
+      </c>
+      <c r="X25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26">
+        <v>7141.3775815600002</v>
+      </c>
+      <c r="E26">
+        <v>292.39999999999998</v>
+      </c>
+      <c r="F26">
+        <v>25.101502922882101</v>
+      </c>
+      <c r="G26">
+        <v>10.473452841813501</v>
+      </c>
+      <c r="H26">
+        <v>11.6415705212058</v>
+      </c>
+      <c r="I26">
+        <v>40.843395981763202</v>
+      </c>
+      <c r="J26">
+        <v>9.44325460379509</v>
+      </c>
+      <c r="K26">
+        <v>2.3357737387185198</v>
+      </c>
+      <c r="L26">
+        <v>8.8821228205705101</v>
+      </c>
+      <c r="M26">
+        <v>7.8042692400824896</v>
+      </c>
+      <c r="N26">
+        <v>3.8223183493819399</v>
+      </c>
+      <c r="O26">
+        <v>44.8265023887352</v>
+      </c>
+      <c r="P26">
+        <v>17.580176728665901</v>
+      </c>
+      <c r="Q26">
+        <v>1.2478524706438601</v>
+      </c>
+      <c r="R26">
+        <v>66.578774010124107</v>
+      </c>
+      <c r="S26">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T26">
+        <v>-2.2061244649324898</v>
+      </c>
+      <c r="U26">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="V26">
+        <v>35</v>
+      </c>
+      <c r="W26">
+        <v>4.86440677966102</v>
+      </c>
+      <c r="X26">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27">
+        <v>6480.7967615999996</v>
+      </c>
+      <c r="E27">
+        <v>254</v>
+      </c>
+      <c r="F27">
+        <v>24.690630758914999</v>
+      </c>
+      <c r="G27">
+        <v>11.766022327462601</v>
+      </c>
+      <c r="H27">
+        <v>29.635247005593602</v>
+      </c>
+      <c r="I27">
+        <v>13.9414922707115</v>
+      </c>
+      <c r="J27">
+        <v>7.8629594263048297</v>
+      </c>
+      <c r="K27">
+        <v>2.0840405471851202</v>
+      </c>
+      <c r="L27">
+        <v>10.0760784413265</v>
+      </c>
+      <c r="M27">
+        <v>8.3539980086622698</v>
+      </c>
+      <c r="N27">
+        <v>1.9605227785692301</v>
+      </c>
+      <c r="O27">
+        <v>139.660114191562</v>
+      </c>
+      <c r="P27">
+        <v>2.9681697492751402</v>
+      </c>
+      <c r="Q27">
+        <v>1.0286340472203199</v>
+      </c>
+      <c r="R27">
+        <v>78.900421046502004</v>
+      </c>
+      <c r="S27">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T27">
+        <v>-31.6109422492401</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>82</v>
+      </c>
+      <c r="W27">
+        <v>5.46</v>
+      </c>
+      <c r="X27">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28">
+        <v>6263.8266922800003</v>
+      </c>
+      <c r="E28">
+        <v>5456.85</v>
+      </c>
+      <c r="F28">
+        <v>32.072845326574502</v>
+      </c>
+      <c r="G28">
+        <v>21.444698659918199</v>
+      </c>
+      <c r="H28">
+        <v>26.3080970701381</v>
+      </c>
+      <c r="I28">
+        <v>215.296142725837</v>
+      </c>
+      <c r="J28">
+        <v>25.733664671015099</v>
+      </c>
+      <c r="K28">
+        <v>70.364298640224206</v>
+      </c>
+      <c r="L28">
+        <v>27.177408793834601</v>
+      </c>
+      <c r="M28">
+        <v>0.86427451095685204</v>
+      </c>
+      <c r="N28">
+        <v>0.82987985145045295</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>14.4082864246349</v>
+      </c>
+      <c r="Q28">
+        <v>3.44346289752652</v>
+      </c>
+      <c r="S28">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="V28">
+        <v>81</v>
+      </c>
+      <c r="W28">
+        <v>6.81666666666667</v>
+      </c>
+      <c r="X28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29">
+        <v>6256.6167518399998</v>
+      </c>
+      <c r="E29">
+        <v>1491.35</v>
+      </c>
+      <c r="F29">
+        <v>21.320168853813101</v>
+      </c>
+      <c r="G29">
+        <v>8.6470848539261702</v>
+      </c>
+      <c r="H29">
+        <v>33.867381328566601</v>
+      </c>
+      <c r="I29">
+        <v>3.7090385241780099</v>
+      </c>
+      <c r="J29">
+        <v>9.8067200915820294</v>
+      </c>
+      <c r="K29">
+        <v>7.1680098162660597</v>
+      </c>
+      <c r="L29">
+        <v>11.671947744887399</v>
+      </c>
+      <c r="M29">
+        <v>11.8242285251906</v>
+      </c>
+      <c r="N29">
+        <v>7.6261732940993303</v>
+      </c>
+      <c r="O29">
+        <v>12.4929284558934</v>
+      </c>
+      <c r="P29">
+        <v>49.311891919140898</v>
+      </c>
+      <c r="Q29">
+        <v>2.3081119644131101</v>
+      </c>
+      <c r="S29">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="V29">
+        <v>63</v>
+      </c>
+      <c r="W29">
+        <v>6.6957627118644103</v>
+      </c>
+      <c r="X29">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30">
+        <v>5818.7166147300004</v>
+      </c>
+      <c r="E30">
+        <v>424.2</v>
+      </c>
+      <c r="F30">
+        <v>38.255862029783003</v>
+      </c>
+      <c r="G30">
+        <v>13.956994513664601</v>
+      </c>
+      <c r="H30">
+        <v>2.1100710072201601</v>
+      </c>
+      <c r="I30">
+        <v>7.6212891988648197</v>
+      </c>
+      <c r="J30">
+        <v>6.3838970981452601</v>
+      </c>
+      <c r="K30">
+        <v>7.5702691689370702</v>
+      </c>
+      <c r="L30">
+        <v>11.5308836806649</v>
+      </c>
+      <c r="M30">
+        <v>17.428145688329302</v>
+      </c>
+      <c r="N30">
+        <v>9.2697748003283404</v>
+      </c>
+      <c r="O30">
+        <v>31.0469846951483</v>
+      </c>
+      <c r="P30">
+        <v>22.605335513115801</v>
+      </c>
+      <c r="Q30">
+        <v>1.98413973799126</v>
+      </c>
+      <c r="S30">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T30">
+        <v>2.27137590676656</v>
+      </c>
+      <c r="U30">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="V30">
+        <v>60</v>
+      </c>
+      <c r="W30">
+        <v>6.4389830508474599</v>
+      </c>
+      <c r="X30">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31">
+        <v>5390.3041919999996</v>
+      </c>
+      <c r="E31">
+        <v>342.05</v>
+      </c>
+      <c r="F31">
+        <v>-6.5749047875779096</v>
+      </c>
+      <c r="G31">
+        <v>-7.7839714432575802</v>
+      </c>
+      <c r="I31">
+        <v>-1.2401357399728401</v>
+      </c>
+      <c r="K31">
+        <v>-8.2366759267454608</v>
+      </c>
+      <c r="L31">
+        <v>9.6252527105982697</v>
+      </c>
+      <c r="M31">
+        <v>-6.4815328148746296</v>
+      </c>
+      <c r="N31">
+        <v>-0.63408881141610096</v>
+      </c>
+      <c r="O31">
+        <v>80.6929390326857</v>
+      </c>
+      <c r="Q31">
+        <v>0.98042551183517401</v>
+      </c>
+      <c r="S31">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T31">
+        <v>-0.22675736961451501</v>
+      </c>
+      <c r="U31">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="V31">
+        <v>42</v>
+      </c>
+      <c r="W31">
+        <v>1.3627118644067799</v>
+      </c>
+      <c r="X31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32">
+        <v>5063.6331902100001</v>
+      </c>
+      <c r="E32">
+        <v>967.7</v>
+      </c>
+      <c r="F32">
+        <v>34.637343116560601</v>
+      </c>
+      <c r="G32">
+        <v>14.7317757661082</v>
+      </c>
+      <c r="H32">
+        <v>4.8126060639882304</v>
+      </c>
+      <c r="I32">
+        <v>21.340968610475901</v>
+      </c>
+      <c r="J32">
+        <v>9.6587895770296797</v>
+      </c>
+      <c r="K32">
+        <v>6.1789115144869902</v>
+      </c>
+      <c r="L32">
+        <v>14.139336306935</v>
+      </c>
+      <c r="M32">
+        <v>14.215105157988001</v>
+      </c>
+      <c r="N32">
+        <v>6.2978230911244202</v>
+      </c>
+      <c r="O32">
+        <v>72.099178023973394</v>
+      </c>
+      <c r="P32">
+        <v>12.329841607206101</v>
+      </c>
+      <c r="Q32">
+        <v>1.07699711260827</v>
+      </c>
+      <c r="S32">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T32">
+        <v>4.7864778052761796</v>
+      </c>
+      <c r="U32">
+        <v>100</v>
+      </c>
+      <c r="V32">
+        <v>71</v>
+      </c>
+      <c r="W32">
+        <v>5.7338983050847396</v>
+      </c>
+      <c r="X32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33">
+        <v>4472.8995902750003</v>
+      </c>
+      <c r="E33">
+        <v>109.4</v>
+      </c>
+      <c r="F33">
+        <v>26.562738822228098</v>
+      </c>
+      <c r="G33">
+        <v>5.9948974601198</v>
+      </c>
+      <c r="H33">
+        <v>6.0800197681491097</v>
+      </c>
+      <c r="I33">
+        <v>22.224581678068802</v>
+      </c>
+      <c r="J33">
+        <v>2.0134471858454099</v>
+      </c>
+      <c r="K33">
+        <v>6.5324293271073897</v>
+      </c>
+      <c r="L33">
+        <v>7.3934249601321396</v>
+      </c>
+      <c r="M33">
+        <v>19.456902235772102</v>
+      </c>
+      <c r="N33">
+        <v>11.184966766821301</v>
+      </c>
+      <c r="O33">
+        <v>3.8507146773432601</v>
+      </c>
+      <c r="P33">
+        <v>60.999818873392499</v>
+      </c>
+      <c r="Q33">
+        <v>2.10569243840271</v>
+      </c>
+      <c r="R33">
+        <v>66.267290607332598</v>
+      </c>
+      <c r="S33">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T33">
+        <v>13.687026304056999</v>
+      </c>
+      <c r="U33">
+        <v>75</v>
+      </c>
+      <c r="V33">
+        <v>45</v>
+      </c>
+      <c r="W33">
+        <v>5.3788135593220296</v>
+      </c>
+      <c r="X33">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34">
+        <v>3785.7800624649999</v>
+      </c>
+      <c r="E34">
+        <v>154.05000000000001</v>
+      </c>
+      <c r="F34">
+        <v>46.536939919667901</v>
+      </c>
+      <c r="G34">
+        <v>6.0761863123210897</v>
+      </c>
+      <c r="H34">
+        <v>0.73595253912130898</v>
+      </c>
+      <c r="I34">
+        <v>-11.7198109851492</v>
+      </c>
+      <c r="J34">
+        <v>-2.8377637836694198</v>
+      </c>
+      <c r="K34">
+        <v>2.6523511967676199</v>
+      </c>
+      <c r="L34">
+        <v>7.3646390457015203</v>
+      </c>
+      <c r="M34">
+        <v>7.2965192503536196</v>
+      </c>
+      <c r="N34">
+        <v>4.5632650655617297</v>
+      </c>
+      <c r="O34">
+        <v>8.4173799269476</v>
+      </c>
+      <c r="P34">
+        <v>23.523118295116099</v>
+      </c>
+      <c r="Q34">
+        <v>1.8274580096926201</v>
+      </c>
+      <c r="R34">
+        <v>41.995035917592801</v>
+      </c>
+      <c r="S34">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T34">
+        <v>-6.3609945108169104</v>
+      </c>
+      <c r="U34">
+        <v>100</v>
+      </c>
+      <c r="V34">
+        <v>15</v>
+      </c>
+      <c r="W34">
+        <v>3.6915254237288102</v>
+      </c>
+      <c r="X34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35">
+        <v>3760.2296299999998</v>
+      </c>
+      <c r="E35">
+        <v>247.85</v>
+      </c>
+      <c r="F35">
+        <v>19.403630889106701</v>
+      </c>
+      <c r="G35">
+        <v>21.4859621525394</v>
+      </c>
+      <c r="H35">
+        <v>-3.05772693138025</v>
+      </c>
+      <c r="I35">
+        <v>8.3483835700076892</v>
+      </c>
+      <c r="J35">
+        <v>16.338205172024601</v>
+      </c>
+      <c r="K35">
+        <v>3.7602760846759198</v>
+      </c>
+      <c r="L35">
+        <v>9.0026525065258092</v>
+      </c>
+      <c r="M35">
+        <v>13.1898108055496</v>
+      </c>
+      <c r="N35">
+        <v>4.4420507645228202</v>
+      </c>
+      <c r="O35">
+        <v>56.2478518740471</v>
+      </c>
+      <c r="P35">
+        <v>11.768742598609199</v>
+      </c>
+      <c r="Q35">
+        <v>0.96960171165240205</v>
+      </c>
+      <c r="R35">
+        <v>90.287587951220203</v>
+      </c>
+      <c r="S35">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T35">
+        <v>45.265348595213297</v>
+      </c>
+      <c r="U35">
+        <v>100</v>
+      </c>
+      <c r="V35">
+        <v>80</v>
+      </c>
+      <c r="X35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36">
+        <v>3481.7489884050001</v>
+      </c>
+      <c r="E36">
+        <v>457</v>
+      </c>
+      <c r="F36">
+        <v>51.927650833780802</v>
+      </c>
+      <c r="G36">
+        <v>15.113238141561601</v>
+      </c>
+      <c r="H36">
+        <v>20.1023628354476</v>
+      </c>
+      <c r="I36">
+        <v>8.3013335406124593</v>
+      </c>
+      <c r="J36">
+        <v>15.7219141455898</v>
+      </c>
+      <c r="K36">
+        <v>11.847672991223501</v>
+      </c>
+      <c r="L36">
+        <v>14.134226532662399</v>
+      </c>
+      <c r="M36">
+        <v>13.9700492559808</v>
+      </c>
+      <c r="N36">
+        <v>11.0649562697451</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>88.7491727332891</v>
+      </c>
+      <c r="Q36">
+        <v>3.6027707473025101</v>
+      </c>
+      <c r="R36">
+        <v>106.27271714922</v>
+      </c>
+      <c r="S36">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="V36">
+        <v>30</v>
+      </c>
+      <c r="W36">
+        <v>5.4156862745097998</v>
+      </c>
+      <c r="X36">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37">
+        <v>3421.8123221999999</v>
+      </c>
+      <c r="E37">
+        <v>829.2</v>
+      </c>
+      <c r="F37">
+        <v>229.036969357419</v>
+      </c>
+      <c r="G37">
+        <v>13.778230647550901</v>
+      </c>
+      <c r="H37">
+        <v>-27.638244059836001</v>
+      </c>
+      <c r="I37">
+        <v>-3.2505969131447201</v>
+      </c>
+      <c r="J37">
+        <v>1.2413475390475801</v>
+      </c>
+      <c r="K37">
+        <v>0.79840649512096595</v>
+      </c>
+      <c r="L37">
+        <v>3.6575955611294102</v>
+      </c>
+      <c r="M37">
+        <v>4.28549480473602</v>
+      </c>
+      <c r="N37">
+        <v>1.9711734213302701</v>
+      </c>
+      <c r="O37">
+        <v>52.880279263487402</v>
+      </c>
+      <c r="P37">
+        <v>1.0379901620209999</v>
+      </c>
+      <c r="Q37">
+        <v>1.0924439839853799</v>
+      </c>
+      <c r="R37">
+        <v>79.570852512720904</v>
+      </c>
+      <c r="S37">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T37">
+        <v>3.6116044997039598</v>
+      </c>
+      <c r="U37">
+        <v>66.6666666666666</v>
+      </c>
+      <c r="V37">
+        <v>28</v>
+      </c>
+      <c r="W37">
+        <v>3.33636363636364</v>
+      </c>
+      <c r="X37">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38">
+        <v>3413.8377215800001</v>
+      </c>
+      <c r="E38">
+        <v>2472.8000000000002</v>
+      </c>
+      <c r="F38">
+        <v>25.545029344357999</v>
+      </c>
+      <c r="G38">
+        <v>8.7020049896374392</v>
+      </c>
+      <c r="H38">
+        <v>-1.9026249933875501</v>
+      </c>
+      <c r="I38">
+        <v>-47.984852544373801</v>
+      </c>
+      <c r="J38">
+        <v>11.5627756000708</v>
+      </c>
+      <c r="K38">
+        <v>-0.18824089908053801</v>
+      </c>
+      <c r="L38">
+        <v>5.9531010830812496</v>
+      </c>
+      <c r="M38">
+        <v>1.4292164803162499</v>
+      </c>
+      <c r="N38">
+        <v>1.2471903003496501</v>
+      </c>
+      <c r="O38">
+        <v>61.080314996628303</v>
+      </c>
+      <c r="P38">
+        <v>6.9928679444714499</v>
+      </c>
+      <c r="Q38">
+        <v>0.80062528749970696</v>
+      </c>
+      <c r="S38">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T38">
+        <v>-48.280520282527299</v>
+      </c>
+      <c r="U38">
+        <v>100</v>
+      </c>
+      <c r="W38">
+        <v>2.8285714285714301</v>
+      </c>
+      <c r="X38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39">
+        <v>3399.2749792200002</v>
+      </c>
+      <c r="E39">
+        <v>279.39999999999998</v>
+      </c>
+      <c r="F39">
+        <v>27.261809120378501</v>
+      </c>
+      <c r="G39">
+        <v>7.6928495457612804</v>
+      </c>
+      <c r="I39">
+        <v>11.755466278031101</v>
+      </c>
+      <c r="J39">
+        <v>31.6110685523131</v>
+      </c>
+      <c r="K39">
+        <v>-0.98320918742692498</v>
+      </c>
+      <c r="L39">
+        <v>8.6993540189098795</v>
+      </c>
+      <c r="M39">
+        <v>-2.82302714904813</v>
+      </c>
+      <c r="N39">
+        <v>4.5382529478830202E-2</v>
+      </c>
+      <c r="O39">
+        <v>15.6656443459987</v>
+      </c>
+      <c r="P39">
+        <v>20.7250182833588</v>
+      </c>
+      <c r="Q39">
+        <v>1.2765378658512301</v>
+      </c>
+      <c r="R39">
+        <v>65.928293664334802</v>
+      </c>
+      <c r="S39">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T39">
+        <v>-28.289709573323702</v>
+      </c>
+      <c r="V39">
+        <v>64</v>
+      </c>
+      <c r="W39">
+        <v>4.2779661016949202</v>
+      </c>
+      <c r="X39">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40">
+        <v>3299.8508609999999</v>
+      </c>
+      <c r="E40">
+        <v>2189.4499999999998</v>
+      </c>
+      <c r="F40">
+        <v>20.368192463428201</v>
+      </c>
+      <c r="G40">
+        <v>8.8415727472700407</v>
+      </c>
+      <c r="H40">
+        <v>14.0577814388304</v>
+      </c>
+      <c r="I40">
+        <v>0.16355864530623801</v>
+      </c>
+      <c r="J40">
+        <v>8.8665762043699399</v>
+      </c>
+      <c r="K40">
+        <v>4.9931719388824103</v>
+      </c>
+      <c r="L40">
+        <v>7.2993071363985598</v>
+      </c>
+      <c r="M40">
+        <v>14.5465428298538</v>
+      </c>
+      <c r="N40">
+        <v>8.8840754316844208</v>
+      </c>
+      <c r="O40">
+        <v>3.6954116841384299</v>
+      </c>
+      <c r="P40">
+        <v>40.783908971906001</v>
+      </c>
+      <c r="Q40">
+        <v>2.3720898936885999</v>
+      </c>
+      <c r="R40">
+        <v>45.944519264550799</v>
+      </c>
+      <c r="S40">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T40">
+        <v>27.2440007327349</v>
+      </c>
+      <c r="U40">
+        <v>100</v>
+      </c>
+      <c r="V40">
+        <v>84</v>
+      </c>
+      <c r="W40">
+        <v>4.8703389830508499</v>
+      </c>
+      <c r="X40">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41">
+        <v>3281.2106207500001</v>
+      </c>
+      <c r="E41">
+        <v>1380.15</v>
+      </c>
+      <c r="F41">
+        <v>26.706907217564702</v>
+      </c>
+      <c r="G41">
+        <v>11.5895272358337</v>
+      </c>
+      <c r="H41">
+        <v>-1.1173352207021401</v>
+      </c>
+      <c r="I41">
+        <v>-9.2507539410283606</v>
+      </c>
+      <c r="J41">
+        <v>-1.2988291098524001</v>
+      </c>
+      <c r="K41">
+        <v>5.2185343374075597</v>
+      </c>
+      <c r="L41">
+        <v>6.0425303339759697</v>
+      </c>
+      <c r="M41">
+        <v>13.913031240837601</v>
+      </c>
+      <c r="N41">
+        <v>8.2863142185865701</v>
+      </c>
+      <c r="O41">
+        <v>1.5697991119327801</v>
+      </c>
+      <c r="P41">
+        <v>18.743516201867301</v>
+      </c>
+      <c r="Q41">
+        <v>1.2808203704898899</v>
+      </c>
+      <c r="R41">
+        <v>47.483421265963997</v>
+      </c>
+      <c r="S41">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="V41">
+        <v>84</v>
+      </c>
+      <c r="W41">
+        <v>6.7</v>
+      </c>
+      <c r="X41">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42">
+        <v>3258.5627789</v>
+      </c>
+      <c r="E42">
+        <v>220.4</v>
+      </c>
+      <c r="F42">
+        <v>24.620799236116302</v>
+      </c>
+      <c r="G42">
+        <v>10.1881804015841</v>
+      </c>
+      <c r="H42">
+        <v>7.0280797647858897</v>
+      </c>
+      <c r="I42">
+        <v>5.61844701096254</v>
+      </c>
+      <c r="J42">
+        <v>5.3168471014818302</v>
+      </c>
+      <c r="K42">
+        <v>4.1579327413245801</v>
+      </c>
+      <c r="L42">
+        <v>6.2583357122141399</v>
+      </c>
+      <c r="M42">
+        <v>13.605704358483999</v>
+      </c>
+      <c r="N42">
+        <v>8.1765590095305605</v>
+      </c>
+      <c r="O42">
+        <v>1.2835244639533001</v>
+      </c>
+      <c r="P42">
+        <v>23.729269385925502</v>
+      </c>
+      <c r="Q42">
+        <v>1.8146350856922699</v>
+      </c>
+      <c r="R42">
+        <v>34.042290531554301</v>
+      </c>
+      <c r="S42">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T42">
+        <v>8.4417015649107299</v>
+      </c>
+      <c r="U42">
+        <v>100</v>
+      </c>
+      <c r="V42">
+        <v>70</v>
+      </c>
+      <c r="W42">
+        <v>5.4474576271186397</v>
+      </c>
+      <c r="X42">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43">
+        <v>2940.89856229</v>
+      </c>
+      <c r="E43">
+        <v>4198.8999999999996</v>
+      </c>
+      <c r="F43">
+        <v>68.728641324842201</v>
+      </c>
+      <c r="G43">
+        <v>-2.0206073423911699E-2</v>
+      </c>
+      <c r="H43">
+        <v>126.255914497395</v>
+      </c>
+      <c r="I43">
+        <v>-1.8043361789894401</v>
+      </c>
+      <c r="J43">
+        <v>7.0148736608836604</v>
+      </c>
+      <c r="K43">
+        <v>1.49227365833498</v>
+      </c>
+      <c r="L43">
+        <v>10.4476755964599</v>
+      </c>
+      <c r="M43">
+        <v>3.65135955424125</v>
+      </c>
+      <c r="N43">
+        <v>0.86586900070158002</v>
+      </c>
+      <c r="O43">
+        <v>180.04247397813299</v>
+      </c>
+      <c r="P43">
+        <v>4.2571607652741399</v>
+      </c>
+      <c r="Q43">
+        <v>1.16947648624667</v>
+      </c>
+      <c r="S43">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="V43">
+        <v>13</v>
+      </c>
+      <c r="W43">
+        <v>3.7694915254237298</v>
+      </c>
+      <c r="X43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44">
+        <v>2790.4592062500001</v>
+      </c>
+      <c r="E44">
+        <v>422.25</v>
+      </c>
+      <c r="F44">
+        <v>58.231619496035201</v>
+      </c>
+      <c r="G44">
+        <v>8.0384143736726497</v>
+      </c>
+      <c r="H44">
+        <v>-6.1438512048557401</v>
+      </c>
+      <c r="I44">
+        <v>6.3800849934319199</v>
+      </c>
+      <c r="J44">
+        <v>-2.70456528440709</v>
+      </c>
+      <c r="K44">
+        <v>2.6927299781921801</v>
+      </c>
+      <c r="L44">
+        <v>9.6024014776951994</v>
+      </c>
+      <c r="M44">
+        <v>10.430348136692499</v>
+      </c>
+      <c r="N44">
+        <v>4.4723428513183796</v>
+      </c>
+      <c r="O44">
+        <v>4.0290861415946297</v>
+      </c>
+      <c r="P44">
+        <v>7.0373307486709296</v>
+      </c>
+      <c r="Q44">
+        <v>1.0997990622906899</v>
+      </c>
+      <c r="S44">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T44">
+        <v>-13.6177673874926</v>
+      </c>
+      <c r="U44">
+        <v>50</v>
+      </c>
+      <c r="V44">
+        <v>43</v>
+      </c>
+      <c r="W44">
+        <v>4.4355932203389798</v>
+      </c>
+      <c r="X44">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45">
+        <v>2659.5136490999998</v>
+      </c>
+      <c r="E45">
+        <v>384.15</v>
+      </c>
+      <c r="F45">
+        <v>28.636951104770102</v>
+      </c>
+      <c r="G45">
+        <v>12.533509583486801</v>
+      </c>
+      <c r="H45">
+        <v>13.7574837456692</v>
+      </c>
+      <c r="I45">
+        <v>7.5513318404828196</v>
+      </c>
+      <c r="J45">
+        <v>14.580338109571899</v>
+      </c>
+      <c r="K45">
+        <v>4.82227533441531</v>
+      </c>
+      <c r="L45">
+        <v>6.5937821921307096</v>
+      </c>
+      <c r="M45">
+        <v>11.617902114683799</v>
+      </c>
+      <c r="N45">
+        <v>6.2157187158163998</v>
+      </c>
+      <c r="O45">
+        <v>78.255387842152999</v>
+      </c>
+      <c r="P45">
+        <v>6.9807122776950798</v>
+      </c>
+      <c r="Q45">
+        <v>1.3035827688399599</v>
+      </c>
+      <c r="R45">
+        <v>41.017215106461798</v>
+      </c>
+      <c r="S45">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T45">
+        <v>-17.862634546386399</v>
+      </c>
+      <c r="U45">
+        <v>100</v>
+      </c>
+      <c r="V45">
+        <v>70</v>
+      </c>
+      <c r="W45">
+        <v>6.0042372881355899</v>
+      </c>
+      <c r="X45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46">
+        <v>2558.5554196500002</v>
+      </c>
+      <c r="E46">
+        <v>867.5</v>
+      </c>
+      <c r="F46">
+        <v>12.281262514520201</v>
+      </c>
+      <c r="G46">
+        <v>18.5433110726017</v>
+      </c>
+      <c r="H46">
+        <v>18.818276640270899</v>
+      </c>
+      <c r="I46">
+        <v>3.13891955994209</v>
+      </c>
+      <c r="J46">
+        <v>15.060826490049701</v>
+      </c>
+      <c r="K46">
+        <v>6.3945321092621201</v>
+      </c>
+      <c r="L46">
+        <v>5.5310931631390003</v>
+      </c>
+      <c r="M46">
+        <v>21.3009361019514</v>
+      </c>
+      <c r="N46">
+        <v>11.952292026380301</v>
+      </c>
+      <c r="O46">
+        <v>2.1748996334438799</v>
+      </c>
+      <c r="P46">
+        <v>42.271325379433499</v>
+      </c>
+      <c r="Q46">
+        <v>1.8436654262516901</v>
+      </c>
+      <c r="S46">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T46">
+        <v>26.314566265760199</v>
+      </c>
+      <c r="V46">
+        <v>88</v>
+      </c>
+      <c r="W46">
+        <v>7.4771186440677999</v>
+      </c>
+      <c r="X46">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47">
+        <v>2536.0513289999999</v>
+      </c>
+      <c r="E47">
+        <v>342.25</v>
+      </c>
+      <c r="F47">
+        <v>10.7651385049664</v>
+      </c>
+      <c r="G47">
+        <v>11.6459428440492</v>
+      </c>
+      <c r="H47">
+        <v>15.0739981954396</v>
+      </c>
+      <c r="I47">
+        <v>-8.71437886958139</v>
+      </c>
+      <c r="J47">
+        <v>14.093336437324901</v>
+      </c>
+      <c r="K47">
+        <v>6.9695005561944798</v>
+      </c>
+      <c r="L47">
+        <v>5.5929461726360197</v>
+      </c>
+      <c r="M47">
+        <v>13.0525305381555</v>
+      </c>
+      <c r="N47">
+        <v>8.9191266906995796</v>
+      </c>
+      <c r="O47">
+        <v>11.736544024772799</v>
+      </c>
+      <c r="P47">
+        <v>45.312560107712997</v>
+      </c>
+      <c r="Q47">
+        <v>3.1741270405512498</v>
+      </c>
+      <c r="S47">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T47">
+        <v>8.5730400451212496</v>
+      </c>
+      <c r="U47">
+        <v>100</v>
+      </c>
+      <c r="W47">
+        <v>7.9516949152542402</v>
+      </c>
+      <c r="X47">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48">
+        <v>2518.0018722</v>
+      </c>
+      <c r="E48">
+        <v>1914.1</v>
+      </c>
+      <c r="F48">
+        <v>18.007594022741898</v>
+      </c>
+      <c r="G48">
+        <v>8.2660651085636392</v>
+      </c>
+      <c r="H48">
+        <v>21.615519756352299</v>
+      </c>
+      <c r="I48">
+        <v>0.97687701339841304</v>
+      </c>
+      <c r="J48">
+        <v>11.778139488862999</v>
+      </c>
+      <c r="K48">
+        <v>5.3101336747996903</v>
+      </c>
+      <c r="L48">
+        <v>9.4720605615864297</v>
+      </c>
+      <c r="M48">
+        <v>14.177453044201901</v>
+      </c>
+      <c r="N48">
+        <v>8.34223095064403</v>
+      </c>
+      <c r="O48">
+        <v>3.13070667524994</v>
+      </c>
+      <c r="P48">
+        <v>47.909956828616401</v>
+      </c>
+      <c r="Q48">
+        <v>2.27959892016968</v>
+      </c>
+      <c r="R48">
+        <v>55.479901489465703</v>
+      </c>
+      <c r="S48">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T48">
+        <v>5.5712344517612502</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>84</v>
+      </c>
+      <c r="W48">
+        <v>6.1779661016949099</v>
+      </c>
+      <c r="X48">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49">
+        <v>2387.450250155</v>
+      </c>
+      <c r="E49">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="F49">
+        <v>-12.289340866603199</v>
+      </c>
+      <c r="G49">
+        <v>-0.931476963079513</v>
+      </c>
+      <c r="I49">
+        <v>-5.8521009243801601</v>
+      </c>
+      <c r="J49">
+        <v>77.242874332910404</v>
+      </c>
+      <c r="K49">
+        <v>-4.3481289000874996</v>
+      </c>
+      <c r="L49">
+        <v>15.271202308858401</v>
+      </c>
+      <c r="M49">
+        <v>-500.84438422082798</v>
+      </c>
+      <c r="N49">
+        <v>-2.9534362834060501</v>
+      </c>
+      <c r="O49">
+        <v>372.62613600752098</v>
+      </c>
+      <c r="Q49">
+        <v>1.0365681031770899</v>
+      </c>
+      <c r="R49">
+        <v>38.615418350807303</v>
+      </c>
+      <c r="S49">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="W49">
+        <v>1.9756756756756799</v>
+      </c>
+      <c r="X49">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>173</v>
+      </c>
+      <c r="B50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50">
+        <v>2372.271229125</v>
+      </c>
+      <c r="E50">
+        <v>240.75</v>
+      </c>
+      <c r="F50">
+        <v>51.259101752916699</v>
+      </c>
+      <c r="G50">
+        <v>19.278200028340599</v>
+      </c>
+      <c r="H50">
+        <v>5.0628852828626898E-2</v>
+      </c>
+      <c r="I50">
+        <v>5.8194797779353904E-3</v>
+      </c>
+      <c r="J50">
+        <v>3.75765413846664</v>
+      </c>
+      <c r="K50">
+        <v>3.0822810858878298</v>
+      </c>
+      <c r="L50">
+        <v>9.4998096913855594</v>
+      </c>
+      <c r="M50">
+        <v>4.2332966821496099</v>
+      </c>
+      <c r="N50">
+        <v>2.7069661799091298</v>
+      </c>
+      <c r="O50">
+        <v>13.561190738699</v>
+      </c>
+      <c r="P50">
+        <v>12.001763439744799</v>
+      </c>
+      <c r="Q50">
+        <v>1.96212890845467</v>
+      </c>
+      <c r="R50">
+        <v>127.415339312006</v>
+      </c>
+      <c r="S50">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="V50">
+        <v>29</v>
+      </c>
+      <c r="W50">
+        <v>4.6118644067796604</v>
+      </c>
+      <c r="X50">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51">
+        <v>2279.5420702500001</v>
+      </c>
+      <c r="E51">
+        <v>2947.65</v>
+      </c>
+      <c r="F51">
+        <v>29.228645598794799</v>
+      </c>
+      <c r="G51">
+        <v>6.67282184069406</v>
+      </c>
+      <c r="H51">
+        <v>-7.6561156110233402</v>
+      </c>
+      <c r="J51">
+        <v>-2.8506669597396699</v>
+      </c>
+      <c r="K51">
+        <v>3.2460492665026099</v>
+      </c>
+      <c r="L51">
+        <v>7.7393793254827399</v>
+      </c>
+      <c r="M51">
+        <v>11.971600057967001</v>
+      </c>
+      <c r="N51">
+        <v>5.2330204789677399</v>
+      </c>
+      <c r="O51">
+        <v>62.822903893909199</v>
+      </c>
+      <c r="P51">
+        <v>5.6164886683614004</v>
+      </c>
+      <c r="Q51">
+        <v>1.31131085618354</v>
+      </c>
+      <c r="S51">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T51">
+        <v>-29.460371844611199</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>59</v>
+      </c>
+      <c r="W51">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="X51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52">
+        <v>2258.05441062</v>
+      </c>
+      <c r="E52">
+        <v>358.35</v>
+      </c>
+      <c r="F52">
+        <v>30.940729112359499</v>
+      </c>
+      <c r="G52">
+        <v>8.4083524893218797</v>
+      </c>
+      <c r="H52">
+        <v>0.91293110291212898</v>
+      </c>
+      <c r="I52">
+        <v>-12.630003847919101</v>
+      </c>
+      <c r="J52">
+        <v>4.4049982290523104</v>
+      </c>
+      <c r="K52">
+        <v>2.98930565451569</v>
+      </c>
+      <c r="L52">
+        <v>7.2465099571283202</v>
+      </c>
+      <c r="M52">
+        <v>9.8908938612724207</v>
+      </c>
+      <c r="N52">
+        <v>4.4374597300279</v>
+      </c>
+      <c r="O52">
+        <v>71.184849503366905</v>
+      </c>
+      <c r="P52">
+        <v>6.5563461262038301</v>
+      </c>
+      <c r="Q52">
+        <v>1.03905133203378</v>
+      </c>
+      <c r="S52">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T52">
+        <v>29.6814607490337</v>
+      </c>
+      <c r="U52">
+        <v>100</v>
+      </c>
+      <c r="W52">
+        <v>4.3542372881355904</v>
+      </c>
+      <c r="X52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53">
+        <v>2228.537828</v>
+      </c>
+      <c r="E53">
+        <v>1005.55</v>
+      </c>
+      <c r="F53">
+        <v>17.114951447661401</v>
+      </c>
+      <c r="G53">
+        <v>18.676473203346902</v>
+      </c>
+      <c r="H53">
+        <v>20.684920085077898</v>
+      </c>
+      <c r="J53">
+        <v>17.1928431922687</v>
+      </c>
+      <c r="K53">
+        <v>7.2013329162760904</v>
+      </c>
+      <c r="L53">
+        <v>7.3343818429808101</v>
+      </c>
+      <c r="M53">
+        <v>15.336828780245201</v>
+      </c>
+      <c r="N53">
+        <v>8.0893416165078502</v>
+      </c>
+      <c r="O53">
+        <v>37.280959661296002</v>
+      </c>
+      <c r="P53">
+        <v>29.1558441558441</v>
+      </c>
+      <c r="Q53">
+        <v>1.7892417109085399</v>
+      </c>
+      <c r="S53">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T53">
+        <v>-13.263340396840601</v>
+      </c>
+      <c r="U53">
+        <v>100</v>
+      </c>
+      <c r="V53">
+        <v>76</v>
+      </c>
+      <c r="W53">
+        <v>7.3355932203389802</v>
+      </c>
+      <c r="X53">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54">
+        <v>2088.1519995499998</v>
+      </c>
+      <c r="E54">
+        <v>370.7</v>
+      </c>
+      <c r="F54">
+        <v>20.701417661841901</v>
+      </c>
+      <c r="G54">
+        <v>4.3416988167534099</v>
+      </c>
+      <c r="H54">
+        <v>2.6929410924942698</v>
+      </c>
+      <c r="I54">
+        <v>8.8205868392216207</v>
+      </c>
+      <c r="J54">
+        <v>-0.80661866750211197</v>
+      </c>
+      <c r="K54">
+        <v>3.9101652227263699</v>
+      </c>
+      <c r="L54">
+        <v>12.358673074014501</v>
+      </c>
+      <c r="M54">
+        <v>6.1184563811891302</v>
+      </c>
+      <c r="N54">
+        <v>4.3501140148560902</v>
+      </c>
+      <c r="O54">
+        <v>0.78955128753935799</v>
+      </c>
+      <c r="P54">
+        <v>23.133198789101801</v>
+      </c>
+      <c r="Q54">
+        <v>2.1170369243254199</v>
+      </c>
+      <c r="R54">
+        <v>92.850492844090496</v>
+      </c>
+      <c r="S54">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="V54">
+        <v>64</v>
+      </c>
+      <c r="X54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55">
+        <v>2076.2805880800001</v>
+      </c>
+      <c r="E55">
+        <v>649.04999999999995</v>
+      </c>
+      <c r="F55">
+        <v>30.874060789293601</v>
+      </c>
+      <c r="G55">
+        <v>14.137602636038</v>
+      </c>
+      <c r="H55">
+        <v>7.0920214833965298</v>
+      </c>
+      <c r="I55">
+        <v>6.8330462734556896</v>
+      </c>
+      <c r="J55">
+        <v>8.7713757075964693</v>
+      </c>
+      <c r="K55">
+        <v>16.575856985695101</v>
+      </c>
+      <c r="L55">
+        <v>19.2797751413705</v>
+      </c>
+      <c r="M55">
+        <v>19.437242232158901</v>
+      </c>
+      <c r="N55">
+        <v>15.470671779878099</v>
+      </c>
+      <c r="O55">
+        <v>8.1671151552140202</v>
+      </c>
+      <c r="P55">
+        <v>70.359907930529303</v>
+      </c>
+      <c r="Q55">
+        <v>3.2661190965092399</v>
+      </c>
+      <c r="S55">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T55">
+        <v>27.064803049555199</v>
+      </c>
+      <c r="U55">
+        <v>100</v>
+      </c>
+      <c r="V55">
+        <v>60</v>
+      </c>
+      <c r="W55">
+        <v>7.8237288135593204</v>
+      </c>
+      <c r="X55">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56">
+        <v>985.19686013099999</v>
+      </c>
+      <c r="E56">
+        <v>37.82</v>
+      </c>
+      <c r="F56">
+        <v>111.44760861210401</v>
+      </c>
+      <c r="G56">
+        <v>297.86801909696902</v>
+      </c>
+      <c r="H56">
+        <v>194.37148247335199</v>
+      </c>
+      <c r="J56">
+        <v>293.919488245867</v>
+      </c>
+      <c r="K56">
+        <v>-121.040804904594</v>
+      </c>
+      <c r="L56">
+        <v>-627.300737726026</v>
+      </c>
+      <c r="M56">
+        <v>3.1424716942515198</v>
+      </c>
+      <c r="N56">
+        <v>0.60041530414684596</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>7.5516828976593198</v>
+      </c>
+      <c r="Q56">
+        <v>1.1160462130936999</v>
+      </c>
+      <c r="S56">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="X56">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D57">
+        <v>974.43556032000004</v>
+      </c>
+      <c r="E57">
+        <v>363.85</v>
+      </c>
+      <c r="F57">
+        <v>243.60889008000001</v>
+      </c>
+      <c r="G57">
+        <v>-1.6249602473205</v>
+      </c>
+      <c r="H57">
+        <v>-39.152401620397697</v>
+      </c>
+      <c r="J57">
+        <v>-12.8501097097597</v>
+      </c>
+      <c r="K57">
+        <v>1.3708878222046099</v>
+      </c>
+      <c r="L57">
+        <v>-3.3824448457182998</v>
+      </c>
+      <c r="M57">
+        <v>10.876787491306599</v>
+      </c>
+      <c r="N57">
+        <v>8.2700988132187305</v>
+      </c>
+      <c r="O57">
+        <v>50.591668017506798</v>
+      </c>
+      <c r="P57">
+        <v>1.6897600540723099</v>
+      </c>
+      <c r="Q57">
+        <v>1.1905488862674301</v>
+      </c>
+      <c r="S57">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="T57">
+        <v>1.5906964309584199</v>
+      </c>
+      <c r="U57">
+        <v>50</v>
+      </c>
+      <c r="V57">
+        <v>25</v>
+      </c>
+      <c r="W57">
+        <v>3.5</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58">
+        <v>297.33949252500003</v>
+      </c>
+      <c r="E58">
+        <v>14.15</v>
+      </c>
+      <c r="F58">
+        <v>7433.4873131250297</v>
+      </c>
+      <c r="G58">
+        <v>-44.175377889685301</v>
+      </c>
+      <c r="H58">
+        <v>-76.561240090872204</v>
+      </c>
+      <c r="K58">
+        <v>31.995591841563499</v>
+      </c>
+      <c r="L58">
+        <v>-28.255275987184099</v>
+      </c>
+      <c r="N58">
+        <v>27.875810586454602</v>
+      </c>
+      <c r="P58">
+        <v>0.111141983884411</v>
+      </c>
+      <c r="Q58">
+        <v>0.29707495429615999</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>62.795470635688901</v>
+      </c>
+      <c r="W58">
+        <v>5.9</v>
+      </c>
+      <c r="X58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>192</v>
+      </c>
+      <c r="B59" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59">
+        <v>259.63495862500002</v>
+      </c>
+      <c r="E59">
+        <v>30.35</v>
+      </c>
+      <c r="F59">
+        <v>341.62494555921103</v>
+      </c>
+      <c r="G59">
+        <v>-29.600440713173601</v>
+      </c>
+      <c r="K59">
+        <v>-102.07240477605799</v>
+      </c>
+      <c r="L59">
+        <v>-32.4137550825386</v>
+      </c>
+      <c r="M59">
+        <v>-14.683270589360401</v>
+      </c>
+      <c r="N59">
+        <v>-14.644168767481499</v>
+      </c>
+      <c r="O59">
+        <v>705.81683168316795</v>
+      </c>
+      <c r="P59">
+        <v>1.0178117048346</v>
+      </c>
+      <c r="Q59">
+        <v>5.3695652173913002</v>
+      </c>
+      <c r="S59">
+        <v>62.795470635688901</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60">
+        <v>6.52014592</v>
+      </c>
+      <c r="E60">
+        <v>23.68</v>
+      </c>
+      <c r="F60">
+        <v>8.8110079999997897</v>
+      </c>
+      <c r="G60">
+        <v>-6.8622170470650099</v>
+      </c>
+      <c r="H60">
+        <v>13.4476892948638</v>
+      </c>
+      <c r="I60">
+        <v>22.4709162729166</v>
+      </c>
+      <c r="J60">
+        <v>1.0402553141511199</v>
+      </c>
+      <c r="K60">
+        <v>0.19046484920568599</v>
+      </c>
+      <c r="L60">
+        <v>2.6216716538220801</v>
+      </c>
+      <c r="M60">
+        <v>4.2077461430600902</v>
+      </c>
+      <c r="N60">
+        <v>0.46768390980854802</v>
+      </c>
+      <c r="O60">
+        <v>631.725265739983</v>
+      </c>
+      <c r="P60">
+        <v>0.90035284097824198</v>
+      </c>
+      <c r="Q60">
+        <v>1.6029122392758699</v>
+      </c>
+      <c r="S60">
+        <v>62.795470635688901</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>196</v>
+      </c>
+      <c r="B61" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61">
+        <v>1.86944003999999</v>
+      </c>
+      <c r="E61">
+        <v>12.69</v>
+      </c>
+      <c r="F61">
+        <v>23.368000500000001</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>-22.237477590200299</v>
+      </c>
+      <c r="P61">
+        <v>9.3023255813953405</v>
+      </c>
+      <c r="Q61">
+        <v>0.24418604651162701</v>
+      </c>
+      <c r="S61">
+        <v>62.795470635688901</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
